--- a/《学习》表.xlsx
+++ b/《学习》表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="44">
   <si>
     <t>Spring Boot教程第25篇：2小时学会spring boot</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -155,6 +155,22 @@
   </si>
   <si>
     <t>1、mysql关键字（防止与制定的表字段冲突）？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/7/10 中午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>过程不熟悉</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -610,20 +626,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C30" sqref="C30"/>
+      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="51.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -637,13 +654,16 @@
         <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -656,8 +676,17 @@
       <c r="D2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -671,7 +700,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -685,7 +714,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -699,7 +728,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
@@ -713,7 +742,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -727,7 +756,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
@@ -741,7 +770,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
@@ -755,7 +784,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>9</v>
       </c>
@@ -769,7 +798,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10</v>
       </c>
@@ -783,7 +812,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>11</v>
       </c>
@@ -797,7 +826,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>12</v>
       </c>
@@ -824,7 +853,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H27" sqref="H27"/>
     </sheetView>

--- a/《学习》表.xlsx
+++ b/《学习》表.xlsx
@@ -630,7 +630,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/《学习》表.xlsx
+++ b/《学习》表.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
     <sheet name="笔记" sheetId="4" r:id="rId2"/>
     <sheet name="spring学习" sheetId="2" r:id="rId3"/>
     <sheet name="java常用框架集锦" sheetId="3" r:id="rId4"/>
+    <sheet name="其他" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="46">
   <si>
     <t>Spring Boot教程第25篇：2小时学会spring boot</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -171,6 +172,14 @@
   </si>
   <si>
     <t>过程不熟悉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RabbitMQ框架</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -628,9 +637,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -855,7 +864,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H27" sqref="H27"/>
+      <selection pane="bottomLeft" activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -973,4 +982,42 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>